--- a/methane protocol/output/stats_overall_WF.xlsx
+++ b/methane protocol/output/stats_overall_WF.xlsx
@@ -377,19 +377,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17.2699184682536</v>
+        <v>17.2757273747673</v>
       </c>
       <c r="B2" t="n">
-        <v>17.158525</v>
+        <v>17.152875</v>
       </c>
       <c r="C2" t="n">
-        <v>6.58505374237463</v>
+        <v>6.61794980124031</v>
       </c>
       <c r="D2" t="n">
-        <v>2.52903169112805</v>
+        <v>2.56501889937977</v>
       </c>
       <c r="E2" t="n">
-        <v>0.707587460290671</v>
+        <v>0.680433590106323</v>
       </c>
     </row>
   </sheetData>

--- a/methane protocol/output/stats_overall_WF.xlsx
+++ b/methane protocol/output/stats_overall_WF.xlsx
@@ -377,19 +377,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17.2757273747673</v>
+        <v>17.1838078619121</v>
       </c>
       <c r="B2" t="n">
-        <v>17.152875</v>
+        <v>17.210625</v>
       </c>
       <c r="C2" t="n">
-        <v>6.61794980124031</v>
+        <v>2.5482862096617</v>
       </c>
       <c r="D2" t="n">
-        <v>2.56501889937977</v>
+        <v>1.12251563973546</v>
       </c>
       <c r="E2" t="n">
-        <v>0.680433590106323</v>
+        <v>-0.11707988866077</v>
       </c>
     </row>
   </sheetData>
